--- a/pyisotopomer/00_excel_template.xlsx
+++ b/pyisotopomer/00_excel_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colette/Box Sync/N2O Research/Spec Calibration Files/Current scripts for isotopomer calculations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colette/Box Sync/N2O Research/Spec Calibration Files/N2O_isotopocule_data_corrections/pyisotopomer/pyisotopomer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AD18D2-E2E0-2749-ABD2-EE7DFE9A166C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F518458-771E-DF44-A9D0-F7A16FE5FF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-520" yWindow="500" windowWidth="18140" windowHeight="15880" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
+    <workbookView xWindow="14460" yWindow="500" windowWidth="14340" windowHeight="15880" activeTab="1" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
   </bookViews>
   <sheets>
     <sheet name="size_correction" sheetId="2" r:id="rId1"/>
@@ -2555,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357C812C-3217-554B-B2A1-EA8A97EA775D}">
   <dimension ref="A1:BB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3:AR17"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6431,7 +6431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514E26BA-DB14-A849-83E2-BEF03A6D7889}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:J2"/>
     </sheetView>
   </sheetViews>
